--- a/face_extraction/week_2/result/extraction_proposal.xlsx
+++ b/face_extraction/week_2/result/extraction_proposal.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cms\konkuk\2022_1\digital_image_processing\face_extraction\week_2\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B2D423-A049-4924-B7B2-62FD33BE62E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC044F5-A221-44F3-A7B7-38B01FC66DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="2520" windowWidth="19365" windowHeight="10950" activeTab="4" xr2:uid="{E33496DC-1F5C-48DD-84A9-E3748D0CC589}"/>
+    <workbookView xWindow="5850" yWindow="2520" windowWidth="19365" windowHeight="10950" activeTab="3" xr2:uid="{E33496DC-1F5C-48DD-84A9-E3748D0CC589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
   <si>
     <t>이미지 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +143,14 @@
   </si>
   <si>
     <t>0.2 ~ 0.5 뽑지말아야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리카락 색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H (radian)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +518,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -768,7 +777,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -914,7 +923,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A22" sqref="A1:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1166,6 +1175,132 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950D6EE5-564C-4356-8F5F-4A28EA8DBFD9}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="A2:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>104</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="F2">
+        <v>1.7453300000000001E-2</v>
+      </c>
+      <c r="G2">
+        <v>7.2164955152716601</v>
+      </c>
+      <c r="H2">
+        <v>38.0392159609233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>204</v>
+      </c>
+      <c r="C3">
+        <v>180</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <v>0.58177647127133802</v>
+      </c>
+      <c r="G3">
+        <v>31.250002689193899</v>
+      </c>
+      <c r="H3">
+        <v>62.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>225</v>
+      </c>
+      <c r="C4">
+        <v>194</v>
+      </c>
+      <c r="D4">
+        <v>174</v>
+      </c>
+      <c r="F4">
+        <v>0.41066576660863702</v>
+      </c>
+      <c r="G4">
+        <v>45</v>
+      </c>
+      <c r="H4">
+        <v>78.235294468262595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>175</v>
+      </c>
+      <c r="C5">
+        <v>155</v>
+      </c>
+      <c r="D5">
+        <v>137</v>
+      </c>
+      <c r="F5">
+        <v>0.49604104731494097</v>
+      </c>
+      <c r="G5">
+        <v>19.191922062380598</v>
+      </c>
+      <c r="H5">
+        <v>61.176471523210097</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7922E4EF-F747-429F-AD4A-3D3DA49B95AE}">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -1308,12 +1443,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6459C712-5837-4D82-B4CB-99E3C295023B}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
